--- a/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,5</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,47</t>
+          <t>-1,44; 8,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,22</t>
+          <t>-3,29; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,26</t>
+          <t>-1,27; 4,76</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 81,36</t>
+          <t>-13,53; 98,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 38,96</t>
+          <t>-25,05; 35,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 41,02</t>
+          <t>-10,86; 47,76</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,84</t>
+          <t>-3,38; 4,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,32</t>
+          <t>-4,32; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,93</t>
+          <t>-2,56; 3,55</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 109,64</t>
+          <t>-31,41; 63,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 30,22</t>
+          <t>-30,99; 36,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 38,38</t>
+          <t>-21,37; 36,38</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,69</t>
+          <t>-4,72; 7,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 7,98</t>
+          <t>-6,6; 6,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,42</t>
+          <t>-3,75; 5,35</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>9,5%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,11; 221,51</t>
+          <t>-64,97; 228,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 112,58</t>
+          <t>-52,14; 100,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 94,42</t>
+          <t>-40,0; 91,14</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 5,56</t>
+          <t>-0,59; 4,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,3</t>
+          <t>-2,18; 2,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,86</t>
+          <t>-0,76; 3,09</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 60,91</t>
+          <t>-6,08; 58,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 20,21</t>
+          <t>-17,92; 23,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 27,46</t>
+          <t>-6,96; 32,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.367050036037198</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1445135121226487</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.214996472327769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 8,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 3,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 4,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.953876087180535</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.424271911454068</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.790612379912185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>28,88%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.966060607371947</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.883431110031116</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.052188128506902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; 98,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,05; 35,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 47,76</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2116963072939508</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01153320527017454</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1022579265415348</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.1662435371883711</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.235314919993785</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1377917305858193</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 4,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 3,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 3,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.8378532601186727</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3664652673372369</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3930679670407884</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,55%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,68%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,58%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.9346338288602984</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.496208493657072</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2857462915088302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-31,41; 63,04</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,99; 36,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-21,37; 36,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.654081948425312</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.789947030661826</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.144386336115903</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.015259006245802</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.708121624134906</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.666932238749344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 7,43</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 6,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 5,35</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.09278562468199482</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1136443732181888</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02457286549597045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>21,14%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,5%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2956430072290334</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3848076761671974</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.240194209310061</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-64,97; 228,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-52,14; 100,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-40,0; 91,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6098834342044719</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2507736968178678</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2672305729582974</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.4830505795198323</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.02837273398970108</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.2603786030185157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 4,81</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 2,41</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 3,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-6.042735844160931</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.015322481061244</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-4.502660113582264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>20,64%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.622855142569958</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.382033156859085</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.69398504102911</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 58,76</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; 23,81</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 32,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.07708548478135231</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.002707777716046211</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.03105033251790544</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6522248288782687</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.5280414048896303</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.426827389657546</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.87084281522863</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>1.038874470319525</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7293980740848726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.60578373442654</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.50460235489755</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5280834050698777</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.013475946706042</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.037711279511526</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.44060991361989</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.941781376972854</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.009301474358884</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.470808713354823</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.1585371865277458</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.04024568475835206</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.04648902312797201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.09009338591947164</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.219274533784778</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1138886228811865</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5594830926246075</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1800934064551072</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2394342247891523</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
